--- a/docs/StructureDefinition-VAReferralEncounterReport.xlsx
+++ b/docs/StructureDefinition-VAReferralEncounterReport.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2229" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2231" uniqueCount="422">
   <si>
     <t>Path</t>
   </si>
@@ -316,584 +316,581 @@
     <t>DocumentReference.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>DocumentReference.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>DocumentReference.masterIdentifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Master Version Specific Identifier</t>
+  </si>
+  <si>
+    <t>Document identifier as assigned by the source of the document. This identifier is specific to this version of the document. This unique identifier may be used elsewhere to identify this version of the document.</t>
+  </si>
+  <si>
+    <t>CDA Document Id extension and root.</t>
+  </si>
+  <si>
+    <t>The structure and format of this Id shall be consistent with the specification corresponding to the formatCode attribute. (e.g. for a DICOM standard document a 64-character numeric UID, for an HL7 CDA format a serialization of the CDA Document Id extension and root in the form "oid^extension", where OID is a 64 digits max, and the Id is a 16 UTF-8 char max. If the OID is coded without the extension then the '^' character shall not be included.).</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>TXA-12</t>
+  </si>
+  <si>
+    <t>DocumentEntry.uniqueId</t>
+  </si>
+  <si>
+    <t>DocumentReference.identifier</t>
+  </si>
+  <si>
+    <t>Other identifiers for the document</t>
+  </si>
+  <si>
+    <t>Other identifiers associated with the document, including version independent identifiers.</t>
+  </si>
+  <si>
+    <t>.id / .setId</t>
+  </si>
+  <si>
+    <t>TXA-16?</t>
+  </si>
+  <si>
+    <t>DocumentEntry.entryUUID</t>
+  </si>
+  <si>
+    <t>DocumentReference.status</t>
+  </si>
+  <si>
+    <t>current | superseded | entered-in-error</t>
+  </si>
+  <si>
+    <t>The status of this document reference.</t>
+  </si>
+  <si>
+    <t>This is the status of the DocumentReference object, which might be independent from the docStatus element.
+This element is labeled as a modifier because the status contains the codes that mark the document or reference as not currently valid.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The status of the document reference.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/document-reference-status</t>
+  </si>
+  <si>
+    <t>interim: .completionCode="IN" &amp; ./statusCode[isNormalDatatype()]="active";  final: .completionCode="AU" &amp;&amp;  ./statusCode[isNormalDatatype()]="complete" and not(./inboundRelationship[typeCode="SUBJ" and isNormalActRelationship()]/source[subsumesCode("ActClass#CACT") and moodCode="EVN" and domainMember("ReviseDocument", code) and isNormalAct()]);  amended: .completionCode="AU" &amp;&amp;  ./statusCode[isNormalDatatype()]="complete" and ./inboundRelationship[typeCode="SUBJ" and isNormalActRelationship()]/source[subsumesCode("ActClass#CACT") and moodCode="EVN" and domainMember("ReviseDocument", code) and isNormalAct() and statusCode="completed"];  withdrawn : .completionCode=NI &amp;&amp;  ./statusCode[isNormalDatatype()]="obsolete"</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>TXA-19</t>
+  </si>
+  <si>
+    <t>DocumentEntry status</t>
+  </si>
+  <si>
+    <t>DocumentReference.docStatus</t>
+  </si>
+  <si>
+    <t>preliminary | final | appended | amended | entered-in-error</t>
+  </si>
+  <si>
+    <t>The status of the underlying document.</t>
+  </si>
+  <si>
+    <t>The document that is pointed to might be in various lifecycle states.</t>
+  </si>
+  <si>
+    <t>Status of the underlying document.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/composition-status</t>
+  </si>
+  <si>
+    <t>.statusCode</t>
+  </si>
+  <si>
+    <t>TXA-17</t>
+  </si>
+  <si>
+    <t>DocumentReference.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Kind of document (LOINC if possible)</t>
+  </si>
+  <si>
+    <t>Specifies the particular kind of document referenced  (e.g. History and Physical, Discharge Summary, Progress Note). This usually equates to the purpose of making the document referenced.</t>
+  </si>
+  <si>
+    <t>Key metadata element describing the document, used in searching/filtering.</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>Precise type of clinical document.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/c80-doc-typecodes</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>TXA-2</t>
+  </si>
+  <si>
+    <t>DocumentEntry.type</t>
+  </si>
+  <si>
+    <t>DocumentReference.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kind
+</t>
+  </si>
+  <si>
+    <t>Categorization of document</t>
+  </si>
+  <si>
+    <t>A categorization for the type of document referenced - helps for indexing and searching. This may be implied by or derived from the code specified in the DocumentReference.type.</t>
+  </si>
+  <si>
+    <t>This is a metadata field from [XDS/MHD](http://wiki.ihe.net/index.php?title=Mobile_access_to_Health_Documents_(MHD)).</t>
+  </si>
+  <si>
+    <t>Helps humans to assess whether the document is of interest when viewing a list of documents.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>High-level kind of a clinical document at a macro level.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/c80-doc-classcodes</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>DocumentEntry.class</t>
+  </si>
+  <si>
+    <t>DocumentReference.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient|Practitioner|Group|Device)
+</t>
+  </si>
+  <si>
+    <t>Who/what is the subject of the document</t>
+  </si>
+  <si>
+    <t>Who or what the document is about. The document can be about a person, (patient or healthcare practitioner), a device (e.g. a machine) or even a group of subjects (such as a document about a herd of farm animals, or a set of patients that share a common exposure).</t>
+  </si>
+  <si>
+    <t>.participation[typeCode="SBJ"].role[typeCode="PAT"]</t>
+  </si>
+  <si>
+    <t>who.focus</t>
+  </si>
+  <si>
+    <t>PID-3 (No standard way to define a Practitioner or Group subject in HL7 v2 MDM message)</t>
+  </si>
+  <si>
+    <t>DocumentEntry.patientId</t>
+  </si>
+  <si>
+    <t>DocumentReference.created</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>Document creation time</t>
+  </si>
+  <si>
+    <t>When the document was created.</t>
+  </si>
+  <si>
+    <t>Creation time is used for tracking, organizing versions and searching. This is the creation time of the document, not the source material on which it is based.</t>
+  </si>
+  <si>
+    <t>.effectiveTime[type="TS"]</t>
+  </si>
+  <si>
+    <t>when.done</t>
+  </si>
+  <si>
+    <t>TXA-6</t>
+  </si>
+  <si>
+    <t>DocumentEntry.submissionTime</t>
+  </si>
+  <si>
+    <t>DocumentReference.indexed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>When this document reference was created</t>
+  </si>
+  <si>
+    <t>When the document reference was created.</t>
+  </si>
+  <si>
+    <t>Referencing/indexing time is used for tracking, organizing versions and searching.</t>
+  </si>
+  <si>
+    <t>.availabilityTime[type="TS"]</t>
+  </si>
+  <si>
+    <t>when.recorded</t>
+  </si>
+  <si>
+    <t>DocumentReference.author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|Organization|Device|Patient|RelatedPerson)
+</t>
+  </si>
+  <si>
+    <t>Who and/or what authored the document</t>
+  </si>
+  <si>
+    <t>Identifies who is responsible for adding the information to the document.</t>
+  </si>
+  <si>
+    <t>Not necessarily who did the actual data entry (i.e. typist) it in or who was the source (informant).</t>
+  </si>
+  <si>
+    <t>.participation[typeCode="AUT"].role[classCode="ASSIGNED"]</t>
+  </si>
+  <si>
+    <t>who.author</t>
+  </si>
+  <si>
+    <t>TXA-9 (No standard way to indicate a Device in HL7 v2 MDM message)</t>
+  </si>
+  <si>
+    <t>DocumentEntry.author</t>
+  </si>
+  <si>
+    <t>DocumentReference.authenticator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|Organization)
+</t>
+  </si>
+  <si>
+    <t>Who/what authenticated the document</t>
+  </si>
+  <si>
+    <t>Which person or organization authenticates that this document is valid.</t>
+  </si>
+  <si>
+    <t>Represents a participant within the author institution who has legally authenticated or attested the document. Legal authentication implies that a document has been signed manually or electronically by the legal Authenticator.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode="AUTHEN"].role[classCode="ASSIGNED"]</t>
+  </si>
+  <si>
+    <t>who.witness</t>
+  </si>
+  <si>
+    <t>TXA-10</t>
+  </si>
+  <si>
+    <t>DocumentEntry.legalAuthenticator</t>
+  </si>
+  <si>
+    <t>DocumentReference.custodian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization which maintains the document</t>
+  </si>
+  <si>
+    <t>Identifies the organization or group who is responsible for ongoing maintenance of and access to the document.</t>
+  </si>
+  <si>
+    <t>Identifies the logical organization to go to find the current version, where to report issues, etc. This is different from the physical location of the document, which is the technical location of the document, which host may be delegated to the management of some other organization.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode="RCV"].role[classCode="CUST"].scoper[classCode="ORG" and determinerCode="INST"]</t>
+  </si>
+  <si>
+    <t>DocumentReference.relatesTo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Relationships to other documents</t>
+  </si>
+  <si>
+    <t>Relationships that this document has with other document references that already exist.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because documents that append to other documents are incomplete on their own.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>.outboundRelationship</t>
+  </si>
+  <si>
+    <t>DocumentReference.relatesTo.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>DocumentReference.relatesTo.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>DocumentReference.relatesTo.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>DocumentReference.relatesTo.code</t>
+  </si>
+  <si>
+    <t>replaces | transforms | signs | appends</t>
+  </si>
+  <si>
+    <t>The type of relationship that this document has with anther document.</t>
+  </si>
+  <si>
+    <t>If this document appends another document, then the document cannot be fully understood without also accessing the referenced document.</t>
+  </si>
+  <si>
+    <t>The type of relationship between documents.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/document-relationship-type</t>
+  </si>
+  <si>
+    <t>.outboundRelationship.typeCode</t>
+  </si>
+  <si>
+    <t>DocumentEntry Associations type</t>
+  </si>
+  <si>
+    <t>DocumentReference.relatesTo.target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(DocumentReference)
+</t>
+  </si>
+  <si>
+    <t>Target of the relationship</t>
+  </si>
+  <si>
+    <t>The target document of this relationship.</t>
+  </si>
+  <si>
+    <t>.target[classCode="DOC", moodCode="EVN"].id</t>
+  </si>
+  <si>
+    <t>DocumentEntry Associations reference</t>
+  </si>
+  <si>
+    <t>DocumentReference.description</t>
+  </si>
+  <si>
+    <t>Human-readable description (title)</t>
+  </si>
+  <si>
+    <t>Human-readable description of the source document. This is sometimes known as the "title".</t>
+  </si>
+  <si>
+    <t>What the document is about, rather than a terse summary of the document. It is commonly the case that records do not have a title and are collectively referred to by the display name of Record code (e.g. a "consultation" or "progress note").</t>
+  </si>
+  <si>
+    <t>Helps humans to assess whether the document is of interest.</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="SUBJ"].target.text</t>
+  </si>
+  <si>
+    <t>TXA-25</t>
+  </si>
+  <si>
+    <t>DocumentEntry.description</t>
+  </si>
+  <si>
+    <t>DocumentReference.securityLabel</t>
+  </si>
+  <si>
+    <t>Document security-tags</t>
+  </si>
+  <si>
+    <t>A set of Security-Tag codes specifying the level of privacy/security of the Document. Note that DocumentReference.meta.security contains the security labels of the "reference" to the document, while DocumentReference.securityLabel contains a snapshot of the security labels on the document the reference refers to.</t>
+  </si>
+  <si>
+    <t>The confidentiality codes can carry multiple vocabulary items. HL7 has developed an understanding of security and privacy tags that might be desirable in a Document Sharing environment, called HL7 Healthcare Privacy and Security Classification System (HCS). The following specification is recommended but not mandated, as the vocabulary bindings are an administrative domain responsibility. The use of this method is up to the policy domain such as the XDS Affinity Domain or other Trust Domain where all parties including sender and recipients are trusted to appropriately tag and enforce.   In the HL7 Healthcare Privacy and Security Classification (HCS) there are code systems specific to Confidentiality, Sensitivity, Integrity, and Handling Caveats. Some values would come from a local vocabulary as they are related to workflow roles and special projects.</t>
+  </si>
+  <si>
+    <t>Use of the Health Care Privacy/Security Classification (HCS) system of security-tag use is recommended.</t>
+  </si>
+  <si>
+    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+  </si>
+  <si>
+    <t>.confidentialityCode</t>
+  </si>
+  <si>
+    <t>TXA-18</t>
+  </si>
+  <si>
+    <t>DocumentEntry.confidentialityCode</t>
+  </si>
+  <si>
+    <t>DocumentReference.content</t>
+  </si>
+  <si>
+    <t>Document referenced</t>
+  </si>
+  <si>
+    <t>The document and format referenced. There may be multiple content element repetitions, each with a different format.</t>
+  </si>
+  <si>
+    <t>document.text</t>
+  </si>
+  <si>
+    <t>DocumentReference.content.id</t>
+  </si>
+  <si>
+    <t>DocumentReference.content.extension</t>
+  </si>
+  <si>
+    <t>DocumentReference.content.modifierExtension</t>
+  </si>
+  <si>
+    <t>DocumentReference.content.attachment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attachment
+</t>
+  </si>
+  <si>
+    <t>Where to access the document</t>
+  </si>
+  <si>
+    <t>The document or URL of the document along with critical metadata to prove content has integrity.</t>
+  </si>
+  <si>
+    <t>TXA-3 for mime type</t>
+  </si>
+  <si>
+    <t>DocumentEntry.mimeType DocumentEntry.languageCode DocumentEntry.URI DocumentEntry.size DocumentEntry.hash DocumentEntry.title</t>
+  </si>
+  <si>
+    <t>DocumentReference.content.attachment.id</t>
+  </si>
+  <si>
+    <t>DocumentReference.content.attachment.extension</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>DocumentReference.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>DocumentReference.masterIdentifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Master Version Specific Identifier</t>
-  </si>
-  <si>
-    <t>Document identifier as assigned by the source of the document. This identifier is specific to this version of the document. This unique identifier may be used elsewhere to identify this version of the document.</t>
-  </si>
-  <si>
-    <t>CDA Document Id extension and root.</t>
-  </si>
-  <si>
-    <t>The structure and format of this Id shall be consistent with the specification corresponding to the formatCode attribute. (e.g. for a DICOM standard document a 64-character numeric UID, for an HL7 CDA format a serialization of the CDA Document Id extension and root in the form "oid^extension", where OID is a 64 digits max, and the Id is a 16 UTF-8 char max. If the OID is coded without the extension then the '^' character shall not be included.).</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>TXA-12</t>
-  </si>
-  <si>
-    <t>DocumentEntry.uniqueId</t>
-  </si>
-  <si>
-    <t>DocumentReference.identifier</t>
-  </si>
-  <si>
-    <t>Other identifiers for the document</t>
-  </si>
-  <si>
-    <t>Other identifiers associated with the document, including version independent identifiers.</t>
-  </si>
-  <si>
-    <t>.id / .setId</t>
-  </si>
-  <si>
-    <t>TXA-16?</t>
-  </si>
-  <si>
-    <t>DocumentEntry.entryUUID</t>
-  </si>
-  <si>
-    <t>DocumentReference.status</t>
-  </si>
-  <si>
-    <t>current | superseded | entered-in-error</t>
-  </si>
-  <si>
-    <t>The status of this document reference.</t>
-  </si>
-  <si>
-    <t>This is the status of the DocumentReference object, which might be independent from the docStatus element.
-This element is labeled as a modifier because the status contains the codes that mark the document or reference as not currently valid.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The status of the document reference.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/document-reference-status</t>
-  </si>
-  <si>
-    <t>interim: .completionCode="IN" &amp; ./statusCode[isNormalDatatype()]="active";  final: .completionCode="AU" &amp;&amp;  ./statusCode[isNormalDatatype()]="complete" and not(./inboundRelationship[typeCode="SUBJ" and isNormalActRelationship()]/source[subsumesCode("ActClass#CACT") and moodCode="EVN" and domainMember("ReviseDocument", code) and isNormalAct()]);  amended: .completionCode="AU" &amp;&amp;  ./statusCode[isNormalDatatype()]="complete" and ./inboundRelationship[typeCode="SUBJ" and isNormalActRelationship()]/source[subsumesCode("ActClass#CACT") and moodCode="EVN" and domainMember("ReviseDocument", code) and isNormalAct() and statusCode="completed"];  withdrawn : .completionCode=NI &amp;&amp;  ./statusCode[isNormalDatatype()]="obsolete"</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>TXA-19</t>
-  </si>
-  <si>
-    <t>DocumentEntry status</t>
-  </si>
-  <si>
-    <t>DocumentReference.docStatus</t>
-  </si>
-  <si>
-    <t>preliminary | final | appended | amended | entered-in-error</t>
-  </si>
-  <si>
-    <t>The status of the underlying document.</t>
-  </si>
-  <si>
-    <t>The document that is pointed to might be in various lifecycle states.</t>
-  </si>
-  <si>
-    <t>Status of the underlying document.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/composition-status</t>
-  </si>
-  <si>
-    <t>.statusCode</t>
-  </si>
-  <si>
-    <t>TXA-17</t>
-  </si>
-  <si>
-    <t>DocumentReference.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Kind of document (LOINC if possible)</t>
-  </si>
-  <si>
-    <t>Specifies the particular kind of document referenced  (e.g. History and Physical, Discharge Summary, Progress Note). This usually equates to the purpose of making the document referenced.</t>
-  </si>
-  <si>
-    <t>Key metadata element describing the document, used in searching/filtering.</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>Precise type of clinical document.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/c80-doc-typecodes</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>TXA-2</t>
-  </si>
-  <si>
-    <t>DocumentEntry.type</t>
-  </si>
-  <si>
-    <t>DocumentReference.class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kind
-</t>
-  </si>
-  <si>
-    <t>Categorization of document</t>
-  </si>
-  <si>
-    <t>A categorization for the type of document referenced - helps for indexing and searching. This may be implied by or derived from the code specified in the DocumentReference.type.</t>
-  </si>
-  <si>
-    <t>This is a metadata field from [XDS/MHD](http://wiki.ihe.net/index.php?title=Mobile_access_to_Health_Documents_(MHD)).</t>
-  </si>
-  <si>
-    <t>Helps humans to assess whether the document is of interest when viewing a list of documents.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>High-level kind of a clinical document at a macro level.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/c80-doc-classcodes</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>DocumentEntry.class</t>
-  </si>
-  <si>
-    <t>DocumentReference.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient|Practitioner|Group|Device)
-</t>
-  </si>
-  <si>
-    <t>Who/what is the subject of the document</t>
-  </si>
-  <si>
-    <t>Who or what the document is about. The document can be about a person, (patient or healthcare practitioner), a device (e.g. a machine) or even a group of subjects (such as a document about a herd of farm animals, or a set of patients that share a common exposure).</t>
-  </si>
-  <si>
-    <t>.participation[typeCode="SBJ"].role[typeCode="PAT"]</t>
-  </si>
-  <si>
-    <t>who.focus</t>
-  </si>
-  <si>
-    <t>PID-3 (No standard way to define a Practitioner or Group subject in HL7 v2 MDM message)</t>
-  </si>
-  <si>
-    <t>DocumentEntry.patientId</t>
-  </si>
-  <si>
-    <t>DocumentReference.created</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>Document creation time</t>
-  </si>
-  <si>
-    <t>When the document was created.</t>
-  </si>
-  <si>
-    <t>Creation time is used for tracking, organizing versions and searching. This is the creation time of the document, not the source material on which it is based.</t>
-  </si>
-  <si>
-    <t>.effectiveTime[type="TS"]</t>
-  </si>
-  <si>
-    <t>when.done</t>
-  </si>
-  <si>
-    <t>TXA-6</t>
-  </si>
-  <si>
-    <t>DocumentEntry.submissionTime</t>
-  </si>
-  <si>
-    <t>DocumentReference.indexed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant
-</t>
-  </si>
-  <si>
-    <t>When this document reference was created</t>
-  </si>
-  <si>
-    <t>When the document reference was created.</t>
-  </si>
-  <si>
-    <t>Referencing/indexing time is used for tracking, organizing versions and searching.</t>
-  </si>
-  <si>
-    <t>.availabilityTime[type="TS"]</t>
-  </si>
-  <si>
-    <t>when.recorded</t>
-  </si>
-  <si>
-    <t>DocumentReference.author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|Organization|Device|Patient|RelatedPerson)
-</t>
-  </si>
-  <si>
-    <t>Who and/or what authored the document</t>
-  </si>
-  <si>
-    <t>Identifies who is responsible for adding the information to the document.</t>
-  </si>
-  <si>
-    <t>Not necessarily who did the actual data entry (i.e. typist) it in or who was the source (informant).</t>
-  </si>
-  <si>
-    <t>.participation[typeCode="AUT"].role[classCode="ASSIGNED"]</t>
-  </si>
-  <si>
-    <t>who.author</t>
-  </si>
-  <si>
-    <t>TXA-9 (No standard way to indicate a Device in HL7 v2 MDM message)</t>
-  </si>
-  <si>
-    <t>DocumentEntry.author</t>
-  </si>
-  <si>
-    <t>DocumentReference.authenticator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|Organization)
-</t>
-  </si>
-  <si>
-    <t>Who/what authenticated the document</t>
-  </si>
-  <si>
-    <t>Which person or organization authenticates that this document is valid.</t>
-  </si>
-  <si>
-    <t>Represents a participant within the author institution who has legally authenticated or attested the document. Legal authentication implies that a document has been signed manually or electronically by the legal Authenticator.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode="AUTHEN"].role[classCode="ASSIGNED"]</t>
-  </si>
-  <si>
-    <t>who.witness</t>
-  </si>
-  <si>
-    <t>TXA-10</t>
-  </si>
-  <si>
-    <t>DocumentEntry.legalAuthenticator</t>
-  </si>
-  <si>
-    <t>DocumentReference.custodian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization which maintains the document</t>
-  </si>
-  <si>
-    <t>Identifies the organization or group who is responsible for ongoing maintenance of and access to the document.</t>
-  </si>
-  <si>
-    <t>Identifies the logical organization to go to find the current version, where to report issues, etc. This is different from the physical location of the document, which is the technical location of the document, which host may be delegated to the management of some other organization.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode="RCV"].role[classCode="CUST"].scoper[classCode="ORG" and determinerCode="INST"]</t>
-  </si>
-  <si>
-    <t>DocumentReference.relatesTo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Relationships to other documents</t>
-  </si>
-  <si>
-    <t>Relationships that this document has with other document references that already exist.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because documents that append to other documents are incomplete on their own.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>.outboundRelationship</t>
-  </si>
-  <si>
-    <t>DocumentReference.relatesTo.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>DocumentReference.relatesTo.extension</t>
-  </si>
-  <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>DocumentReference.relatesTo.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>DocumentReference.relatesTo.code</t>
-  </si>
-  <si>
-    <t>replaces | transforms | signs | appends</t>
-  </si>
-  <si>
-    <t>The type of relationship that this document has with anther document.</t>
-  </si>
-  <si>
-    <t>If this document appends another document, then the document cannot be fully understood without also accessing the referenced document.</t>
-  </si>
-  <si>
-    <t>The type of relationship between documents.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/document-relationship-type</t>
-  </si>
-  <si>
-    <t>.outboundRelationship.typeCode</t>
-  </si>
-  <si>
-    <t>DocumentEntry Associations type</t>
-  </si>
-  <si>
-    <t>DocumentReference.relatesTo.target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(DocumentReference)
-</t>
-  </si>
-  <si>
-    <t>Target of the relationship</t>
-  </si>
-  <si>
-    <t>The target document of this relationship.</t>
-  </si>
-  <si>
-    <t>.target[classCode="DOC", moodCode="EVN"].id</t>
-  </si>
-  <si>
-    <t>DocumentEntry Associations reference</t>
-  </si>
-  <si>
-    <t>DocumentReference.description</t>
-  </si>
-  <si>
-    <t>Human-readable description (title)</t>
-  </si>
-  <si>
-    <t>Human-readable description of the source document. This is sometimes known as the "title".</t>
-  </si>
-  <si>
-    <t>What the document is about, rather than a terse summary of the document. It is commonly the case that records do not have a title and are collectively referred to by the display name of Record code (e.g. a "consultation" or "progress note").</t>
-  </si>
-  <si>
-    <t>Helps humans to assess whether the document is of interest.</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="SUBJ"].target.text</t>
-  </si>
-  <si>
-    <t>TXA-25</t>
-  </si>
-  <si>
-    <t>DocumentEntry.description</t>
-  </si>
-  <si>
-    <t>DocumentReference.securityLabel</t>
-  </si>
-  <si>
-    <t>Document security-tags</t>
-  </si>
-  <si>
-    <t>A set of Security-Tag codes specifying the level of privacy/security of the Document. Note that DocumentReference.meta.security contains the security labels of the "reference" to the document, while DocumentReference.securityLabel contains a snapshot of the security labels on the document the reference refers to.</t>
-  </si>
-  <si>
-    <t>The confidentiality codes can carry multiple vocabulary items. HL7 has developed an understanding of security and privacy tags that might be desirable in a Document Sharing environment, called HL7 Healthcare Privacy and Security Classification System (HCS). The following specification is recommended but not mandated, as the vocabulary bindings are an administrative domain responsibility. The use of this method is up to the policy domain such as the XDS Affinity Domain or other Trust Domain where all parties including sender and recipients are trusted to appropriately tag and enforce.   In the HL7 Healthcare Privacy and Security Classification (HCS) there are code systems specific to Confidentiality, Sensitivity, Integrity, and Handling Caveats. Some values would come from a local vocabulary as they are related to workflow roles and special projects.</t>
-  </si>
-  <si>
-    <t>Use of the Health Care Privacy/Security Classification (HCS) system of security-tag use is recommended.</t>
-  </si>
-  <si>
-    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
-  </si>
-  <si>
-    <t>.confidentialityCode</t>
-  </si>
-  <si>
-    <t>TXA-18</t>
-  </si>
-  <si>
-    <t>DocumentEntry.confidentialityCode</t>
-  </si>
-  <si>
-    <t>DocumentReference.content</t>
-  </si>
-  <si>
-    <t>Document referenced</t>
-  </si>
-  <si>
-    <t>The document and format referenced. There may be multiple content element repetitions, each with a different format.</t>
-  </si>
-  <si>
-    <t>document.text</t>
-  </si>
-  <si>
-    <t>DocumentReference.content.id</t>
-  </si>
-  <si>
-    <t>DocumentReference.content.extension</t>
-  </si>
-  <si>
-    <t>DocumentReference.content.modifierExtension</t>
-  </si>
-  <si>
-    <t>DocumentReference.content.attachment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attachment
-</t>
-  </si>
-  <si>
-    <t>Where to access the document</t>
-  </si>
-  <si>
-    <t>The document or URL of the document along with critical metadata to prove content has integrity.</t>
-  </si>
-  <si>
-    <t>TXA-3 for mime type</t>
-  </si>
-  <si>
-    <t>DocumentEntry.mimeType DocumentEntry.languageCode DocumentEntry.URI DocumentEntry.size DocumentEntry.hash DocumentEntry.title</t>
-  </si>
-  <si>
-    <t>DocumentReference.content.attachment.id</t>
-  </si>
-  <si>
-    <t>DocumentReference.content.attachment.extension</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>DocumentReference.content.attachment.contentType</t>
@@ -2444,7 +2441,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2463,15 +2460,17 @@
         <v>41</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>41</v>
@@ -2508,14 +2507,16 @@
         <v>41</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>101</v>
@@ -2536,7 +2537,7 @@
         <v>41</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>41</v>
@@ -2554,7 +2555,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2573,16 +2574,16 @@
         <v>41</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L10" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="M10" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2632,7 +2633,7 @@
         <v>41</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>42</v>
@@ -2664,7 +2665,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2687,19 +2688,19 @@
         <v>52</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>41</v>
@@ -2748,7 +2749,7 @@
         <v>41</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>42</v>
@@ -2766,21 +2767,21 @@
         <v>41</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AM11" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>117</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2803,13 +2804,13 @@
         <v>52</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2860,7 +2861,7 @@
         <v>41</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>42</v>
@@ -2878,21 +2879,21 @@
         <v>41</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AM12" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AN12" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>123</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2918,13 +2919,13 @@
         <v>70</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2950,63 +2951,63 @@
         <v>41</v>
       </c>
       <c r="W13" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="X13" t="s" s="2">
+      <c r="Z13" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="AL13" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="Z13" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>134</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3032,13 +3033,13 @@
         <v>70</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3064,55 +3065,55 @@
         <v>41</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="AL14" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AM14" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>41</v>
@@ -3120,7 +3121,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3143,16 +3144,16 @@
         <v>52</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3178,67 +3179,67 @@
         <v>41</v>
       </c>
       <c r="W15" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="Y15" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="X15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="AL15" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>154</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3257,19 +3258,19 @@
         <v>52</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>41</v>
@@ -3294,63 +3295,63 @@
         <v>41</v>
       </c>
       <c r="W16" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="Y16" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="X16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AM16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>165</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3373,13 +3374,13 @@
         <v>52</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="K17" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3430,7 +3431,7 @@
         <v>41</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
@@ -3448,21 +3449,21 @@
         <v>41</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>173</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3485,16 +3486,16 @@
         <v>52</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3544,7 +3545,7 @@
         <v>41</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
@@ -3562,21 +3563,21 @@
         <v>41</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>182</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3599,16 +3600,16 @@
         <v>52</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3658,7 +3659,7 @@
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>51</v>
@@ -3676,21 +3677,21 @@
         <v>41</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3713,16 +3714,16 @@
         <v>52</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3772,7 +3773,7 @@
         <v>41</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -3790,21 +3791,21 @@
         <v>41</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>198</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3827,16 +3828,16 @@
         <v>52</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3886,7 +3887,7 @@
         <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -3904,21 +3905,21 @@
         <v>41</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>207</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3941,16 +3942,16 @@
         <v>52</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4000,7 +4001,7 @@
         <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -4018,7 +4019,7 @@
         <v>41</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>41</v>
@@ -4032,7 +4033,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4055,16 +4056,16 @@
         <v>52</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4114,7 +4115,7 @@
         <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
@@ -4126,13 +4127,13 @@
         <v>41</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>41</v>
@@ -4146,7 +4147,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4169,13 +4170,13 @@
         <v>41</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="K24" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4226,7 +4227,7 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -4244,7 +4245,7 @@
         <v>41</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>41</v>
@@ -4258,11 +4259,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4281,16 +4282,16 @@
         <v>41</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>228</v>
+        <v>98</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4340,7 +4341,7 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -4358,7 +4359,7 @@
         <v>41</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>41</v>
@@ -4372,11 +4373,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4395,16 +4396,16 @@
         <v>52</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4454,7 +4455,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4486,7 +4487,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4512,13 +4513,13 @@
         <v>70</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4544,63 +4545,63 @@
         <v>41</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="X27" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>242</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4623,13 +4624,13 @@
         <v>52</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4680,7 +4681,7 @@
         <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>51</v>
@@ -4698,7 +4699,7 @@
         <v>41</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>41</v>
@@ -4707,12 +4708,12 @@
         <v>41</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4735,19 +4736,19 @@
         <v>52</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="N29" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>41</v>
@@ -4796,7 +4797,7 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -4814,21 +4815,21 @@
         <v>41</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4851,19 +4852,19 @@
         <v>52</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="N30" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>41</v>
@@ -4891,10 +4892,10 @@
         <v>74</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>41</v>
@@ -4912,7 +4913,7 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -4930,21 +4931,21 @@
         <v>41</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4967,13 +4968,13 @@
         <v>52</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5024,7 +5025,7 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>51</v>
@@ -5036,13 +5037,13 @@
         <v>41</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>41</v>
@@ -5056,7 +5057,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5079,13 +5080,13 @@
         <v>41</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="K32" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5136,7 +5137,7 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -5154,7 +5155,7 @@
         <v>41</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>41</v>
@@ -5168,11 +5169,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5191,16 +5192,16 @@
         <v>41</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>228</v>
+        <v>98</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5250,7 +5251,7 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -5268,7 +5269,7 @@
         <v>41</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>41</v>
@@ -5282,11 +5283,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5305,16 +5306,16 @@
         <v>52</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5364,7 +5365,7 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5396,7 +5397,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5419,13 +5420,13 @@
         <v>52</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5476,7 +5477,7 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>51</v>
@@ -5494,21 +5495,21 @@
         <v>41</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5531,13 +5532,13 @@
         <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5588,7 +5589,7 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5606,7 +5607,7 @@
         <v>41</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>41</v>
@@ -5620,11 +5621,11 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5643,16 +5644,16 @@
         <v>41</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>228</v>
+        <v>98</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5690,19 +5691,19 @@
         <v>41</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>99</v>
+        <v>279</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>100</v>
+        <v>281</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -5720,7 +5721,7 @@
         <v>41</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>41</v>
@@ -5734,7 +5735,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5760,14 +5761,14 @@
         <v>70</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>41</v>
@@ -5780,67 +5781,67 @@
         <v>41</v>
       </c>
       <c r="S38" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="X38" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="T38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="X38" t="s" s="2">
+      <c r="Y38" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="Y38" t="s" s="2">
+      <c r="Z38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE38" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="Z38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE38" t="s" s="2">
+      <c r="AF38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="AF38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK38" t="s" s="2">
+      <c r="AL38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>41</v>
@@ -5848,7 +5849,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5874,14 +5875,14 @@
         <v>70</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>41</v>
@@ -5894,7 +5895,7 @@
         <v>41</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>41</v>
@@ -5930,25 +5931,25 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>41</v>
@@ -5962,14 +5963,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D40" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E40" t="s" s="2">
         <v>42</v>
@@ -5987,19 +5988,19 @@
         <v>41</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>41</v>
@@ -6048,31 +6049,31 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AF40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
+      <c r="AK40" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AK40" t="s" s="2">
+      <c r="AL40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>41</v>
@@ -6080,7 +6081,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6106,16 +6107,16 @@
         <v>64</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>41</v>
@@ -6128,67 +6129,67 @@
         <v>41</v>
       </c>
       <c r="S41" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE41" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="T41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE41" t="s" s="2">
+      <c r="AF41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AF41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK41" t="s" s="2">
+      <c r="AL41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>41</v>
@@ -6196,7 +6197,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6219,19 +6220,19 @@
         <v>52</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>41</v>
@@ -6280,25 +6281,25 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK42" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>41</v>
@@ -6312,7 +6313,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6335,19 +6336,19 @@
         <v>52</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>41</v>
@@ -6396,25 +6397,25 @@
         <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK43" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>41</v>
@@ -6428,7 +6429,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6451,17 +6452,17 @@
         <v>52</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>41</v>
@@ -6474,61 +6475,61 @@
         <v>41</v>
       </c>
       <c r="S44" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE44" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="T44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE44" t="s" s="2">
+      <c r="AF44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK44" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>41</v>
@@ -6542,7 +6543,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6565,17 +6566,17 @@
         <v>52</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>41</v>
@@ -6624,7 +6625,7 @@
         <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6642,7 +6643,7 @@
         <v>41</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>41</v>
@@ -6656,7 +6657,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6679,16 +6680,16 @@
         <v>52</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6714,63 +6715,63 @@
         <v>41</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="X46" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="Y46" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="Y46" t="s" s="2">
+      <c r="Z46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>354</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6793,16 +6794,16 @@
         <v>52</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6852,7 +6853,7 @@
         <v>41</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -6864,13 +6865,13 @@
         <v>41</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>41</v>
@@ -6884,7 +6885,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6907,13 +6908,13 @@
         <v>41</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="K48" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6964,7 +6965,7 @@
         <v>41</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -6982,7 +6983,7 @@
         <v>41</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>41</v>
@@ -6996,11 +6997,11 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7019,16 +7020,16 @@
         <v>41</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>228</v>
+        <v>98</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7078,7 +7079,7 @@
         <v>41</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -7096,7 +7097,7 @@
         <v>41</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>41</v>
@@ -7110,11 +7111,11 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7133,16 +7134,16 @@
         <v>52</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7192,7 +7193,7 @@
         <v>41</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7224,7 +7225,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7247,13 +7248,13 @@
         <v>52</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7304,7 +7305,7 @@
         <v>41</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
@@ -7322,10 +7323,10 @@
         <v>41</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>41</v>
@@ -7336,7 +7337,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7359,16 +7360,16 @@
         <v>52</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7394,14 +7395,14 @@
         <v>41</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="X52" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="Y52" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="Y52" t="s" s="2">
-        <v>374</v>
-      </c>
       <c r="Z52" t="s" s="2">
         <v>41</v>
       </c>
@@ -7418,7 +7419,7 @@
         <v>41</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7436,21 +7437,21 @@
         <v>41</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN52" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>376</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7473,13 +7474,13 @@
         <v>52</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7530,7 +7531,7 @@
         <v>41</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
@@ -7548,21 +7549,21 @@
         <v>41</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN53" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>382</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7585,13 +7586,13 @@
         <v>52</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7618,63 +7619,63 @@
         <v>41</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="X54" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="Y54" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="Y54" t="s" s="2">
+      <c r="Z54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK54" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="Z54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK54" t="s" s="2">
+      <c r="AL54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN54" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>389</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7697,19 +7698,19 @@
         <v>52</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>41</v>
@@ -7734,63 +7735,63 @@
         <v>41</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="X55" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="Y55" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="Y55" t="s" s="2">
+      <c r="Z55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN55" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>397</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7813,13 +7814,13 @@
         <v>52</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7870,7 +7871,7 @@
         <v>41</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
@@ -7888,7 +7889,7 @@
         <v>41</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>41</v>
@@ -7897,12 +7898,12 @@
         <v>41</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7925,16 +7926,16 @@
         <v>52</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -7984,7 +7985,7 @@
         <v>41</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -7996,27 +7997,27 @@
         <v>41</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN57" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>408</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8039,13 +8040,13 @@
         <v>41</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8096,7 +8097,7 @@
         <v>41</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
@@ -8114,7 +8115,7 @@
         <v>41</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>41</v>
@@ -8128,11 +8129,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8151,16 +8152,16 @@
         <v>41</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>228</v>
+        <v>98</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8210,7 +8211,7 @@
         <v>41</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8228,7 +8229,7 @@
         <v>41</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>41</v>
@@ -8242,11 +8243,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8265,16 +8266,16 @@
         <v>52</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8324,7 +8325,7 @@
         <v>41</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
@@ -8356,7 +8357,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8379,16 +8380,16 @@
         <v>52</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8438,7 +8439,7 @@
         <v>41</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
@@ -8456,7 +8457,7 @@
         <v>41</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>41</v>
@@ -8470,7 +8471,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8493,16 +8494,16 @@
         <v>52</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8552,7 +8553,7 @@
         <v>41</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
@@ -8570,7 +8571,7 @@
         <v>41</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>41</v>
